--- a/low-flow-index/dados-saida/porto_amazonas.xlsx
+++ b/low-flow-index/dados-saida/porto_amazonas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="8">
   <si>
     <t>ts</t>
   </si>
@@ -26,6 +26,33 @@
   </si>
   <si>
     <t>d</t>
+  </si>
+  <si>
+    <t>Pexpon(&lt;=Dobs)</t>
+  </si>
+  <si>
+    <t>Pgama(&lt;=Dobs)</t>
+  </si>
+  <si>
+    <t>[0.06496678 0.34156208 0.38912368 0.68106213 0.58725952 0.31030487
+ 0.18312797 0.14646499 0.0687961  0.89485477 0.19919709 0.98673486
+ 0.20574286 0.09875408 0.0504815  0.15178583 0.27108785 0.9955356
+ 0.81229156 0.22647301 0.6100251  0.16928359 0.99631129 0.97804643
+ 0.62396985 0.57732863 0.19196601 0.30357823 0.92954817 0.46534654
+ 0.36054098 0.19532764 0.71560886 0.09114899 0.1309809  0.15751266
+ 0.05350738 0.24484423 0.         0.89760493]</t>
+  </si>
+  <si>
+    <t>[1.35920241e-01 4.38064851e-01 4.80929025e-01 7.24100778e-01
+ 6.48438203e-01 4.09073678e-01 2.81520641e-01 2.40511012e-01
+ 1.41485803e-01 8.97091894e-01 2.98743939e-01 9.81914549e-01
+ 3.05647092e-01 1.82312676e-01 1.13907488e-01 2.46630224e-01
+ 3.71591260e-01 9.92583871e-01 8.29198484e-01 3.27118643e-01
+ 6.66930172e-01 2.66337085e-01 9.93650156e-01 9.72569969e-01
+ 6.78209509e-01 6.40337829e-01 2.91043753e-01 4.02737692e-01
+ 9.26984633e-01 5.47112573e-01 4.55336574e-01 2.94633399e-01
+ 7.51727854e-01 1.72342222e-01 2.22326581e-01 2.53148119e-01
+ 1.18646119e-01 3.45696643e-01 8.38904689e-13 8.99417988e-01]</t>
   </si>
 </sst>
 </file>
@@ -388,13 +415,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -407,8 +434,14 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>4</v>
       </c>
@@ -424,8 +457,14 @@
       <c r="E2" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>12</v>
       </c>
@@ -441,8 +480,14 @@
       <c r="E3" s="3">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>14</v>
       </c>
@@ -458,8 +503,14 @@
       <c r="E4" s="3">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>18</v>
       </c>
@@ -475,8 +526,14 @@
       <c r="E5" s="3">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>24</v>
       </c>
@@ -492,8 +549,14 @@
       <c r="E6" s="3">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>29</v>
       </c>
@@ -509,8 +572,14 @@
       <c r="E7" s="3">
         <v>41</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>33</v>
       </c>
@@ -526,8 +595,14 @@
       <c r="E8" s="3">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>35</v>
       </c>
@@ -543,8 +618,14 @@
       <c r="E9" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>41</v>
       </c>
@@ -560,8 +641,14 @@
       <c r="E10" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>48</v>
       </c>
@@ -577,8 +664,14 @@
       <c r="E11" s="3">
         <v>89</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>52</v>
       </c>
@@ -594,8 +687,14 @@
       <c r="E12" s="3">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>61</v>
       </c>
@@ -611,8 +710,14 @@
       <c r="E13" s="3">
         <v>136</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>63</v>
       </c>
@@ -628,8 +733,14 @@
       <c r="E14" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>65</v>
       </c>
@@ -645,8 +756,14 @@
       <c r="E15" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>69</v>
       </c>
@@ -662,8 +779,14 @@
       <c r="E16" s="3">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>73</v>
       </c>
@@ -679,8 +802,14 @@
       <c r="E17" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>75</v>
       </c>
@@ -696,8 +825,14 @@
       <c r="E18" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>84</v>
       </c>
@@ -713,8 +848,14 @@
       <c r="E19" s="3">
         <v>214</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>86</v>
       </c>
@@ -730,8 +871,14 @@
       <c r="E20" s="3">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>87</v>
       </c>
@@ -747,8 +894,14 @@
       <c r="E21" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>90</v>
       </c>
@@ -764,8 +917,14 @@
       <c r="E22" s="3">
         <v>51</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>91</v>
       </c>
@@ -781,8 +940,14 @@
       <c r="E23" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>100</v>
       </c>
@@ -798,8 +963,14 @@
       <c r="E24" s="3">
         <v>157</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>111</v>
       </c>
@@ -815,8 +986,14 @@
       <c r="E25" s="3">
         <v>133</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>116</v>
       </c>
@@ -832,8 +1009,14 @@
       <c r="E26" s="3">
         <v>95</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>117</v>
       </c>
@@ -849,8 +1032,14 @@
       <c r="E27" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>121</v>
       </c>
@@ -866,8 +1055,14 @@
       <c r="E28" s="3">
         <v>39</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1">
         <v>122</v>
       </c>
@@ -883,8 +1078,14 @@
       <c r="E29" s="3">
         <v>17</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1">
         <v>129</v>
       </c>
@@ -900,8 +1101,14 @@
       <c r="E30" s="3">
         <v>116</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1">
         <v>134</v>
       </c>
@@ -917,8 +1124,14 @@
       <c r="E31" s="3">
         <v>51</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="F31" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1">
         <v>138</v>
       </c>
@@ -934,8 +1147,14 @@
       <c r="E32" s="3">
         <v>19</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="F32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1">
         <v>140</v>
       </c>
@@ -951,8 +1170,14 @@
       <c r="E33" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="F33" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1">
         <v>148</v>
       </c>
@@ -968,8 +1193,14 @@
       <c r="E34" s="3">
         <v>48</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="F34" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1">
         <v>154</v>
       </c>
@@ -985,8 +1216,14 @@
       <c r="E35" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35" t="s">
+        <v>6</v>
+      </c>
+      <c r="G35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1">
         <v>158</v>
       </c>
@@ -1002,8 +1239,14 @@
       <c r="E36" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="F36" t="s">
+        <v>6</v>
+      </c>
+      <c r="G36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1">
         <v>160</v>
       </c>
@@ -1019,8 +1262,14 @@
       <c r="E37" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37" t="s">
+        <v>6</v>
+      </c>
+      <c r="G37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1">
         <v>163</v>
       </c>
@@ -1036,8 +1285,14 @@
       <c r="E38" s="3">
         <v>22</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="F38" t="s">
+        <v>6</v>
+      </c>
+      <c r="G38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1">
         <v>164</v>
       </c>
@@ -1053,8 +1308,14 @@
       <c r="E39" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="F39" t="s">
+        <v>6</v>
+      </c>
+      <c r="G39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1">
         <v>169</v>
       </c>
@@ -1070,8 +1331,14 @@
       <c r="E40" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="F40" t="s">
+        <v>6</v>
+      </c>
+      <c r="G40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1">
         <v>180</v>
       </c>
@@ -1086,6 +1353,12 @@
       </c>
       <c r="E41" s="3">
         <v>106</v>
+      </c>
+      <c r="F41" t="s">
+        <v>6</v>
+      </c>
+      <c r="G41" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
